--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>351568.0168759617</v>
+        <v>354110.2463898325</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11465356.14162198</v>
+        <v>11821355.91763806</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9814017.51043731</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6558966.570401189</v>
+        <v>6386622.550922959</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>17.71126707126509</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>23.24773686037027</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -747,7 +749,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193206</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -801,7 +803,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>174.5627220424963</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -823,19 +825,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>113.6794429932546</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>19.50042337073094</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>401.6607857086126</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>100.0791888769557</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -990,7 +992,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464124</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1117,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>21.30608602554481</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1138,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.7578715946248</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>19.8984304622902</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>136.1769805884545</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1382,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>386.8650699901663</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.42437614909089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
         <v>157.7484451748619</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>136.1769805884545</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>388.2474135039329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1619,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>5.023821855875643</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1846,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>14.5909438208581</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>6.338580986754886</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.5491849825634</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>109.910034153904</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>279.858723008788</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -2087,10 +2089,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>11.89439304893099</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059088</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>388.3430365919147</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2333,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>251.9755126124237</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2476,13 +2478,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>156.6355495128298</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>64.58458413263577</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2555,13 +2557,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>11.89439304893087</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>376.6093515842641</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2649,7 +2651,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464111</v>
+        <v>70.03974083464124</v>
       </c>
       <c r="I27" t="n">
         <v>20.54110546596223</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>63.72112162188417</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2773,10 +2775,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>9.978229853488823</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>79.99166789182529</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2925,7 +2927,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3773027531638</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128979</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.5952110672388</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>388.3430365919147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>215.7328087232253</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3187,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>65.42520756919141</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -3238,16 +3240,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>166.7165542762734</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>242.6122314632435</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.338580986754753</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3433,16 +3435,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>165.4216953850584</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>22.55063026834873</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>386.8650699901663</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>68.10450439871028</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2824454742741</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3724,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,10 +3745,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>40.3950232139772</v>
+        <v>36.61269645884417</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>139.6550878937857</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>85.25432609134842</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3964,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>372.26989229096</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>390.1527797502169</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>259.3250421185132</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4065,13 +4067,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>74.1982497154109</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
         <v>20.54110546596223</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>29.06736062834963</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -4192,13 +4194,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>55.62709520730887</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1277.096428763703</v>
+        <v>1286.674210597145</v>
       </c>
       <c r="C2" t="n">
-        <v>866.9718380769729</v>
+        <v>1286.674210597145</v>
       </c>
       <c r="D2" t="n">
-        <v>462.5079081700334</v>
+        <v>1286.674210597145</v>
       </c>
       <c r="E2" t="n">
-        <v>462.5079081700334</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F2" t="n">
-        <v>462.5079081700334</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
         <v>439.0253456848109</v>
@@ -4331,25 +4333,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>733.4074053521598</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4370,10 +4372,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>1687.317608428192</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
         <v>240.2510026593071</v>
@@ -4452,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.8428321846941</v>
+        <v>1437.475014334506</v>
       </c>
       <c r="C4" t="n">
-        <v>713.7494597464106</v>
+        <v>1266.381641896222</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2548150693206</v>
+        <v>1106.886997219132</v>
       </c>
       <c r="E4" t="n">
-        <v>393.34399993764</v>
+        <v>1106.886997219132</v>
       </c>
       <c r="F4" t="n">
-        <v>228.7128740482313</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="G4" t="n">
-        <v>61.46248297377471</v>
+        <v>824.8088859494691</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V4" t="n">
-        <v>1297.278237189974</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W4" t="n">
-        <v>1297.278237189974</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X4" t="n">
-        <v>1297.278237189974</v>
+        <v>1849.910419339786</v>
       </c>
       <c r="Y4" t="n">
-        <v>1072.542538578738</v>
+        <v>1625.17472072855</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1281.599643065957</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="C5" t="n">
-        <v>1281.599643065957</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="D5" t="n">
-        <v>877.1357131590178</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="E5" t="n">
-        <v>462.7954976759145</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4574,16 +4576,16 @@
         <v>1075.450954962253</v>
       </c>
       <c r="M5" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4601,16 +4603,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1687.317608428192</v>
+        <v>553.0763550687942</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4625,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
         <v>469.7036984844747</v>
@@ -4632,34 +4634,34 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.008892784822</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784822</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P6" t="n">
         <v>2058.694762117472</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6759007612826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6759007612826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6759007612826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6759007612826</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6759007612826</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>856.3536062232714</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="C8" t="n">
-        <v>446.2290155365415</v>
+        <v>866.9718380769729</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960205</v>
+        <v>866.9718380769729</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>452.6316225938696</v>
       </c>
       <c r="F8" t="n">
         <v>41.76508562960205</v>
@@ -4805,16 +4807,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N8" t="n">
-        <v>692.8507596625949</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O8" t="n">
         <v>1209.69369432892</v>
@@ -4841,13 +4843,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>2068.154856770718</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1667.511458939671</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1266.574785887761</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4889,7 @@
         <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>497.5713418949007</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M9" t="n">
         <v>1014.414276561226</v>
@@ -4896,7 +4898,7 @@
         <v>1531.257211227551</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P9" t="n">
         <v>2088.254281480102</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4996,16 +4998,16 @@
         <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1287.260303845748</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C11" t="n">
-        <v>877.1357131590178</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D11" t="n">
-        <v>877.1357131590178</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="E11" t="n">
-        <v>462.7954976759145</v>
+        <v>853.5682956457795</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>432.537883599467</v>
       </c>
       <c r="G11" t="n">
         <v>41.76508562960205</v>
@@ -5042,22 +5044,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K11" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L11" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M11" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N11" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O11" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
         <v>2088.254281480102</v>
@@ -5078,13 +5080,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>1303.850582784223</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y11" t="n">
-        <v>1287.260303845748</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I12" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1659581184966</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L12" t="n">
-        <v>1025.008892784822</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.008892784822</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N12" t="n">
-        <v>1541.851827451147</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O12" t="n">
-        <v>2058.694762117472</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P12" t="n">
         <v>2058.694762117472</v>
@@ -5154,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5233,16 +5235,16 @@
         <v>777.1526093285881</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1678.033101815613</v>
+        <v>1286.674210597145</v>
       </c>
       <c r="C14" t="n">
-        <v>1285.863997266186</v>
+        <v>1286.674210597145</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>882.2102806902053</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>467.870065207102</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>46.83965316078957</v>
       </c>
       <c r="G14" t="n">
         <v>41.76508562960205</v>
@@ -5279,25 +5281,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>176.0078249962696</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L14" t="n">
-        <v>176.0078249962696</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M14" t="n">
-        <v>692.8507596625949</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N14" t="n">
-        <v>1209.69369432892</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
@@ -5318,10 +5320,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I15" t="n">
         <v>41.76508562960205</v>
@@ -5358,22 +5360,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L15" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.414276561226</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N15" t="n">
-        <v>1014.414276561226</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O15" t="n">
-        <v>1531.257211227551</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P15" t="n">
-        <v>2048.100145893876</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q15" t="n">
         <v>2088.254281480102</v>
@@ -5391,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="16">
@@ -5458,25 +5460,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X16" t="n">
-        <v>1543.534340936018</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y16" t="n">
         <v>1318.798642324783</v>
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1270.693821706375</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="C17" t="n">
-        <v>860.5692310196448</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="D17" t="n">
-        <v>456.1053011127053</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960205</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I17" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O17" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
@@ -5549,16 +5551,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W17" t="n">
-        <v>2081.851674422774</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X17" t="n">
-        <v>2081.851674422774</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="Y17" t="n">
-        <v>1680.915001370864</v>
+        <v>553.0763550687942</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
         <v>41.76508562960205</v>
@@ -5598,22 +5600,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>1054.568412147452</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M18" t="n">
-        <v>1054.568412147452</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N18" t="n">
-        <v>1054.568412147452</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O18" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5628,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>436.3817591188274</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>436.3817591188274</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>436.3817591188274</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>436.3817591188274</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I19" t="n">
         <v>41.76508562960205</v>
@@ -5704,19 +5706,19 @@
         <v>1145.223475107064</v>
       </c>
       <c r="U19" t="n">
-        <v>1145.223475107064</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V19" t="n">
-        <v>871.3377300465861</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W19" t="n">
-        <v>592.2680655554605</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="X19" t="n">
-        <v>353.9242034151438</v>
+        <v>624.0814655128718</v>
       </c>
       <c r="Y19" t="n">
-        <v>129.1885048039085</v>
+        <v>624.0814655128718</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2111.00538110944</v>
+        <v>1265.081890330439</v>
       </c>
       <c r="C20" t="n">
-        <v>1700.88079042271</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="D20" t="n">
-        <v>1296.41686051577</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E20" t="n">
-        <v>882.0766450326671</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F20" t="n">
-        <v>461.0462329863546</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L20" t="n">
-        <v>148.2406548632084</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M20" t="n">
-        <v>795.6752722431443</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N20" t="n">
-        <v>1443.10988962308</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O20" t="n">
-        <v>2086.740746040185</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2393.690959906196</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>2393.690959906196</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V20" t="n">
-        <v>2393.690959906196</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W20" t="n">
-        <v>2393.690959906196</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X20" t="n">
-        <v>2393.690959906196</v>
+        <v>2076.239743046839</v>
       </c>
       <c r="Y20" t="n">
-        <v>2393.690959906196</v>
+        <v>1675.303069994929</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>731.1487907657211</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>597.1537195146668</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>480.2565617340592</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>359.7637457263872</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>250.8038659088918</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8137532232305</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>73.06654025894656</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1242051444855</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L21" t="n">
-        <v>539.8221701772372</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M21" t="n">
-        <v>539.8221701772372</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N21" t="n">
-        <v>539.8221701772372</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O21" t="n">
-        <v>1187.256787557173</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P21" t="n">
-        <v>1748.962680045703</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>1990.817134843996</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1831.475271031004</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1634.124460169222</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1420.412933162256</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1207.179764898585</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1030.853783037478</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>871.4518234013077</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.651799180323</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="C22" t="n">
-        <v>970.5584267420397</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="D22" t="n">
-        <v>811.0637820649497</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="E22" t="n">
-        <v>650.1529669332692</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5218410438605</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G22" t="n">
-        <v>318.2714499694039</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H22" t="n">
-        <v>168.6639947748606</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I22" t="n">
-        <v>52.31794887918674</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J22" t="n">
-        <v>66.40049828439726</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K22" t="n">
-        <v>220.9528260066352</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L22" t="n">
-        <v>480.8499262866958</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M22" t="n">
-        <v>770.1139827271891</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N22" t="n">
-        <v>1050.952765121439</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O22" t="n">
-        <v>1310.513375447913</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P22" t="n">
-        <v>1516.188815697526</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q22" t="n">
-        <v>1581.716845500037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R22" t="n">
-        <v>1581.716845500037</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="S22" t="n">
-        <v>1581.716845500037</v>
+        <v>1816.589795035412</v>
       </c>
       <c r="T22" t="n">
-        <v>1581.716845500037</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U22" t="n">
-        <v>1581.716845500037</v>
+        <v>1294.242908558238</v>
       </c>
       <c r="V22" t="n">
-        <v>1581.716845500037</v>
+        <v>1020.35716349776</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.716845500037</v>
+        <v>741.2874990066346</v>
       </c>
       <c r="X22" t="n">
-        <v>1554.087204185603</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="Y22" t="n">
-        <v>1329.351505574368</v>
+        <v>558.8553848592519</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2453.126100861739</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C23" t="n">
-        <v>2043.001510175009</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D23" t="n">
-        <v>1638.53758026807</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E23" t="n">
-        <v>1224.197364784966</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F23" t="n">
-        <v>803.1669527386539</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G23" t="n">
-        <v>394.4386686314861</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6896723682436</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L23" t="n">
-        <v>1334.281072180482</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.599663172236</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N23" t="n">
-        <v>2863.780679810854</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O23" t="n">
-        <v>3507.411536227959</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
-        <v>4036.56823414711</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>3919.448071219715</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>3919.448071219715</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>3664.927351409186</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>3264.283953578138</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y23" t="n">
-        <v>2863.347280526228</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>762.3610131457385</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>628.3659418946842</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>511.4687841140766</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>390.9759681064046</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>282.0160882889091</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>175.0259756032479</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>104.2787626389639</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5301712592041</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>83.5301712592041</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L24" t="n">
-        <v>83.5301712592041</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M24" t="n">
-        <v>926.5072519537707</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.165344065389</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O24" t="n">
-        <v>2130.019367109704</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P24" t="n">
-        <v>2130.019367109704</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="Q24" t="n">
-        <v>2130.019367109704</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S24" t="n">
-        <v>2022.029357224013</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T24" t="n">
-        <v>1862.687493411021</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U24" t="n">
-        <v>1665.33668254924</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1451.625155542274</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1238.391987278602</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
-        <v>1062.066005417495</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>902.6640457813252</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1000.493731225603</v>
+        <v>1393.020729020947</v>
       </c>
       <c r="C25" t="n">
-        <v>1000.493731225603</v>
+        <v>1221.927356582663</v>
       </c>
       <c r="D25" t="n">
-        <v>842.2760044449672</v>
+        <v>1221.927356582663</v>
       </c>
       <c r="E25" t="n">
-        <v>681.3651893132867</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F25" t="n">
-        <v>516.734063423878</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="G25" t="n">
-        <v>349.4836723494213</v>
+        <v>824.8088859494691</v>
       </c>
       <c r="H25" t="n">
-        <v>199.876217154878</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="I25" t="n">
-        <v>83.5301712592041</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J25" t="n">
-        <v>97.61272066441461</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K25" t="n">
-        <v>252.1650483866526</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L25" t="n">
-        <v>512.0621486667131</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M25" t="n">
-        <v>801.3262051072064</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N25" t="n">
-        <v>1082.164987501457</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O25" t="n">
-        <v>1341.725597827931</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P25" t="n">
-        <v>1547.401038077543</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q25" t="n">
-        <v>1612.929067880054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R25" t="n">
-        <v>1612.929067880054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S25" t="n">
-        <v>1426.537299759964</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T25" t="n">
-        <v>1426.537299759964</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U25" t="n">
-        <v>1426.537299759964</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="V25" t="n">
-        <v>1426.537299759964</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.537299759964</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="X25" t="n">
-        <v>1188.193437619648</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="Y25" t="n">
-        <v>1188.193437619648</v>
+        <v>1580.720435414991</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>761.4018671090519</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="C26" t="n">
-        <v>761.4018671090519</v>
+        <v>866.9718380769729</v>
       </c>
       <c r="D26" t="n">
-        <v>761.4018671090519</v>
+        <v>462.5079081700334</v>
       </c>
       <c r="E26" t="n">
-        <v>761.4018671090519</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F26" t="n">
-        <v>761.4018671090519</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G26" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H26" t="n">
         <v>41.76508562960205</v>
@@ -6230,46 +6232,46 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L26" t="n">
-        <v>497.1688317915616</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N26" t="n">
-        <v>1530.854701124212</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O26" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P26" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q26" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U26" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V26" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W26" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X26" t="n">
-        <v>1572.559719825451</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y26" t="n">
-        <v>1171.623046773541</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="27">
@@ -6282,7 +6284,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D27" t="n">
         <v>469.7036984844747</v>
@@ -6291,13 +6293,13 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G27" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I27" t="n">
         <v>41.76508562960205</v>
@@ -6306,22 +6308,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>751.4208778585605</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N27" t="n">
-        <v>1268.263812524886</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O27" t="n">
-        <v>1738.409816796119</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P27" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q27" t="n">
         <v>2088.254281480102</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>277.2232273829201</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>106.1298549446366</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
         <v>41.76508562960205</v>
@@ -6406,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1246.342524902554</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U28" t="n">
-        <v>963.5443774486778</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V28" t="n">
-        <v>689.6586323881997</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W28" t="n">
-        <v>689.6586323881997</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X28" t="n">
-        <v>689.6586323881997</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y28" t="n">
-        <v>464.9229337769644</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>872.9200883626444</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C29" t="n">
-        <v>462.7954976759145</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D29" t="n">
-        <v>462.7954976759145</v>
+        <v>863.4445812219433</v>
       </c>
       <c r="E29" t="n">
-        <v>462.7954976759145</v>
+        <v>449.10436573884</v>
       </c>
       <c r="F29" t="n">
-        <v>41.76508562960205</v>
+        <v>449.10436573884</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I29" t="n">
         <v>41.76508562960205</v>
@@ -6464,25 +6466,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960205</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L29" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M29" t="n">
-        <v>1075.450954962253</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N29" t="n">
-        <v>1075.450954962253</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O29" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P29" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6494,19 +6496,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U29" t="n">
-        <v>2007.454616942905</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V29" t="n">
-        <v>1657.617062279386</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W29" t="n">
-        <v>1273.856761414554</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X29" t="n">
-        <v>1273.856761414554</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y29" t="n">
-        <v>872.9200883626444</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6548,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L30" t="n">
-        <v>508.1659581184966</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.008892784822</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N30" t="n">
-        <v>1541.851827451147</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O30" t="n">
-        <v>2058.694762117472</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P30" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q30" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>558.8553848592519</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="C31" t="n">
-        <v>558.8553848592519</v>
+        <v>1477.095862722105</v>
       </c>
       <c r="D31" t="n">
-        <v>558.8553848592519</v>
+        <v>1317.601218045015</v>
       </c>
       <c r="E31" t="n">
-        <v>558.8553848592519</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F31" t="n">
-        <v>558.8553848592519</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="G31" t="n">
-        <v>558.8553848592519</v>
+        <v>824.8088859494691</v>
       </c>
       <c r="H31" t="n">
-        <v>558.8553848592519</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="I31" t="n">
         <v>558.8553848592519</v>
@@ -6649,22 +6651,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T31" t="n">
-        <v>1848.705542456804</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U31" t="n">
-        <v>1565.907395002929</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V31" t="n">
-        <v>1292.02164994245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W31" t="n">
-        <v>1012.951985451325</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X31" t="n">
-        <v>774.6081233110083</v>
+        <v>2060.624640165668</v>
       </c>
       <c r="Y31" t="n">
-        <v>558.8553848592519</v>
+        <v>1835.888941554433</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1695.988587952916</v>
+        <v>680.7074256791724</v>
       </c>
       <c r="C32" t="n">
-        <v>1285.863997266186</v>
+        <v>680.7074256791724</v>
       </c>
       <c r="D32" t="n">
-        <v>1285.863997266186</v>
+        <v>680.7074256791724</v>
       </c>
       <c r="E32" t="n">
-        <v>871.5237817830823</v>
+        <v>680.7074256791724</v>
       </c>
       <c r="F32" t="n">
-        <v>450.4933697367699</v>
+        <v>259.6770136328599</v>
       </c>
       <c r="G32" t="n">
         <v>41.76508562960205</v>
@@ -6701,22 +6703,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K32" t="n">
-        <v>41.76508562960205</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L32" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M32" t="n">
-        <v>558.6080202959273</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N32" t="n">
-        <v>692.8507596625949</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O32" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P32" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6728,22 +6730,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>1482.28749656213</v>
       </c>
       <c r="X32" t="n">
-        <v>2088.254281480102</v>
+        <v>1081.644098731082</v>
       </c>
       <c r="Y32" t="n">
-        <v>2088.254281480102</v>
+        <v>680.7074256791724</v>
       </c>
     </row>
     <row r="33">
@@ -6783,16 +6785,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L33" t="n">
-        <v>537.7254774811262</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M33" t="n">
-        <v>1054.568412147451</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N33" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O33" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P33" t="n">
         <v>2088.254281480102</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>224.1971997769844</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="C34" t="n">
-        <v>224.1971997769844</v>
+        <v>1477.095862722105</v>
       </c>
       <c r="D34" t="n">
-        <v>224.1971997769844</v>
+        <v>1317.601218045015</v>
       </c>
       <c r="E34" t="n">
-        <v>224.1971997769844</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F34" t="n">
-        <v>224.1971997769844</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="G34" t="n">
-        <v>224.1971997769844</v>
+        <v>824.8088859494691</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1111315252759</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L34" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M34" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N34" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O34" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P34" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q34" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R34" t="n">
-        <v>1485.891263925851</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="S34" t="n">
-        <v>1299.499495805762</v>
+        <v>1816.589795035412</v>
       </c>
       <c r="T34" t="n">
-        <v>1059.950756782464</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="U34" t="n">
-        <v>777.1526093285881</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="V34" t="n">
-        <v>503.2668642681101</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="W34" t="n">
-        <v>224.1971997769844</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="X34" t="n">
-        <v>224.1971997769844</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.1971997769844</v>
+        <v>1648.189235160388</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1277.096428763703</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C35" t="n">
-        <v>866.9718380769729</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D35" t="n">
-        <v>462.5079081700334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E35" t="n">
-        <v>48.16769268693008</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F35" t="n">
         <v>41.76508562960205</v>
@@ -6938,16 +6940,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N35" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O35" t="n">
         <v>2047.697635790537</v>
@@ -6968,19 +6970,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="X35" t="n">
-        <v>2088.254281480102</v>
+        <v>696.9525363802143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1687.317608428192</v>
+        <v>696.9525363802143</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
         <v>41.76508562960205</v>
@@ -7020,16 +7022,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L36" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M36" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="M36" t="n">
-        <v>1054.568412147451</v>
-      </c>
       <c r="N36" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O36" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P36" t="n">
         <v>2088.254281480102</v>
@@ -7050,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1648.189235160388</v>
+        <v>533.263917876656</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722105</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045015</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E37" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494691</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S37" t="n">
-        <v>1835.888941554433</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T37" t="n">
-        <v>1835.888941554433</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U37" t="n">
-        <v>1835.888941554433</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V37" t="n">
-        <v>1835.888941554433</v>
+        <v>1463.112849513378</v>
       </c>
       <c r="W37" t="n">
-        <v>1835.888941554433</v>
+        <v>1184.043185022252</v>
       </c>
       <c r="X37" t="n">
-        <v>1835.888941554433</v>
+        <v>945.6993228819357</v>
       </c>
       <c r="Y37" t="n">
-        <v>1835.888941554433</v>
+        <v>720.9636242707004</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1678.033101815613</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="C38" t="n">
-        <v>1267.908511128883</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D38" t="n">
-        <v>1267.908511128883</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E38" t="n">
-        <v>853.5682956457795</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F38" t="n">
-        <v>432.537883599467</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G38" t="n">
         <v>41.76508562960205</v>
@@ -7172,28 +7174,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>216.5644706858345</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L38" t="n">
-        <v>733.4074053521598</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M38" t="n">
-        <v>733.4074053521598</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N38" t="n">
-        <v>1250.250340018485</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O38" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P38" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7202,22 +7204,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>2019.461852794536</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>2019.461852794536</v>
       </c>
       <c r="V38" t="n">
-        <v>2088.254281480102</v>
+        <v>1669.624298131017</v>
       </c>
       <c r="W38" t="n">
-        <v>2088.254281480102</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="X38" t="n">
-        <v>2088.254281480102</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="Y38" t="n">
-        <v>2088.254281480102</v>
+        <v>1285.863997266186</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7259,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L39" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M39" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="M39" t="n">
-        <v>704.7239474634679</v>
-      </c>
       <c r="N39" t="n">
-        <v>704.7239474634679</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O39" t="n">
-        <v>1221.566882129793</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P39" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q39" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7360,19 +7362,19 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T40" t="n">
-        <v>1299.499495805762</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U40" t="n">
-        <v>1057.800055932758</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V40" t="n">
-        <v>783.9143108722797</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W40" t="n">
-        <v>504.844646381154</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X40" t="n">
-        <v>266.5007842408373</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y40" t="n">
         <v>41.76508562960205</v>
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>492.6927300678241</v>
+        <v>893.3361278988716</v>
       </c>
       <c r="C41" t="n">
-        <v>82.56813938109417</v>
+        <v>483.2115372121417</v>
       </c>
       <c r="D41" t="n">
-        <v>82.56813938109417</v>
+        <v>78.74760730520222</v>
       </c>
       <c r="E41" t="n">
         <v>41.76508562960205</v>
@@ -7415,22 +7417,22 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M41" t="n">
-        <v>1726.536628995245</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N41" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O41" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P41" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7451,10 +7453,10 @@
         <v>1704.493980615271</v>
       </c>
       <c r="X41" t="n">
-        <v>1303.850582784223</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="Y41" t="n">
-        <v>902.9139097323135</v>
+        <v>1303.557307563361</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>558.6080202959273</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O42" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P42" t="n">
         <v>2088.254281480102</v>
@@ -7524,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7543,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>212.8584580678856</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
         <v>41.76508562960205</v>
@@ -7594,25 +7596,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>1145.223475107064</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V43" t="n">
-        <v>871.3377300465861</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W43" t="n">
-        <v>592.2680655554605</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X43" t="n">
-        <v>353.9242034151438</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y43" t="n">
-        <v>353.9242034151438</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>425.3059392994284</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C44" t="n">
-        <v>425.3059392994284</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K44" t="n">
-        <v>417.4634743327321</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L44" t="n">
-        <v>803.7147262854468</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M44" t="n">
-        <v>1189.965978238161</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N44" t="n">
-        <v>1520.054473311303</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P44" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1338.404634947726</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U44" t="n">
-        <v>1081.344143207237</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V44" t="n">
-        <v>1081.344143207237</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W44" t="n">
-        <v>1081.344143207237</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="X44" t="n">
-        <v>687.2504262878256</v>
+        <v>818.7319529148049</v>
       </c>
       <c r="Y44" t="n">
-        <v>425.3059392994284</v>
+        <v>417.795279862895</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>498.2935857843746</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>364.2985145333203</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D45" t="n">
-        <v>247.4013567527127</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E45" t="n">
-        <v>126.9085407450407</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F45" t="n">
-        <v>51.96081375977718</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>51.96081375977718</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>224.0250799426506</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K45" t="n">
-        <v>610.2763318953653</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L45" t="n">
-        <v>610.2763318953653</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M45" t="n">
-        <v>610.2763318953653</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N45" t="n">
-        <v>996.52758384808</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O45" t="n">
-        <v>996.52758384808</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="P45" t="n">
-        <v>1181.207134954254</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q45" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1401.269255187876</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1401.269255187876</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1187.55772818091</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>974.3245599172384</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X45" t="n">
-        <v>797.9985780561312</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>638.5966184199613</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.21222238001735</v>
+        <v>533.263917876656</v>
       </c>
       <c r="C46" t="n">
-        <v>31.21222238001735</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D46" t="n">
-        <v>31.21222238001735</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1531.250148669201</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S46" t="n">
-        <v>1344.858380549111</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T46" t="n">
-        <v>1105.309641525814</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U46" t="n">
-        <v>822.5114940719377</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V46" t="n">
-        <v>548.6257490114597</v>
+        <v>720.9636242707004</v>
       </c>
       <c r="W46" t="n">
-        <v>269.556084520334</v>
+        <v>720.9636242707004</v>
       </c>
       <c r="X46" t="n">
-        <v>31.21222238001735</v>
+        <v>720.9636242707004</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.21222238001735</v>
+        <v>720.9636242707004</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7981,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>224.7351163062146</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>269.4773261669552</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
@@ -8000,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8222,7 +8224,7 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>269.8552598673813</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
@@ -8231,10 +8233,10 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>594.6194560602019</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8292,13 +8294,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>394.1192645454833</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -8307,10 +8309,10 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>525.3716274158285</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8453,19 +8455,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>615.7129336509097</v>
@@ -8535,19 +8537,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>98.31121191537974</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>94.8193679181835</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8690,13 +8692,13 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432426</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L11" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>269.8552598673813</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
         <v>614.9758611266449</v>
@@ -8708,7 +8710,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8766,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>332.1773130131622</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>525.3716274158285</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8927,10 +8929,10 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>224.7351163062146</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
         <v>615.3537948270711</v>
@@ -8939,16 +8941,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.25235142021801</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
         <v>615.3537948270711</v>
@@ -9176,16 +9178,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O17" t="n">
-        <v>553.1935596277625</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9248,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>423.9773649117762</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9261,10 +9263,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>394.6973592394724</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,19 +9406,19 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>192.3770202689273</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>747.2645854468797</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>746.8866517464535</v>
+        <v>593.882383535937</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
         <v>90.03380439915205</v>
@@ -9483,19 +9485,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>88.1326703085781</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
-        <v>711.7258399898342</v>
+        <v>266.9965351298658</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9638,25 +9640,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>231.3876718871261</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
         <v>87.31214281472352</v>
@@ -9714,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
@@ -9723,22 +9725,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>333.0441487333849</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M26" t="n">
         <v>615.3537948270711</v>
@@ -9887,7 +9889,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P26" t="n">
         <v>93.64936328088416</v>
@@ -9896,7 +9898,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,25 +9956,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>532.6464328093261</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>422.1224761037308</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10112,7 +10114,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>549.1401736751965</v>
       </c>
       <c r="L29" t="n">
         <v>617.5489684328704</v>
@@ -10121,19 +10123,19 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N29" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>270.21439869122</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>527.2265162238739</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>579.627854108443</v>
@@ -10206,13 +10208,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>555.229727782121</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,25 +10351,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>549.1401736751965</v>
       </c>
       <c r="L32" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N32" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10431,7 +10433,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
         <v>579.627854108443</v>
@@ -10443,7 +10445,7 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>555.229727782121</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10586,7 +10588,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
         <v>617.5489684328704</v>
@@ -10595,10 +10597,10 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>552.9160747585987</v>
       </c>
       <c r="O35" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
@@ -10668,10 +10670,10 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>558.5343765177347</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N36" t="n">
         <v>575.2569637637755</v>
@@ -10680,7 +10682,7 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>265.701425083553</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P38" t="n">
         <v>615.7129336509097</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>205.1561293621958</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O39" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728293</v>
+        <v>171.9933802602892</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,13 +11065,13 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>494.1995199774884</v>
+        <v>535.1658287548266</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
         <v>93.18977562578313</v>
@@ -11081,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P42" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11297,19 +11299,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>485.6381778130617</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>483.4430042072623</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
-        <v>426.3350130527216</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P44" t="n">
         <v>93.64936328088416</v>
@@ -11318,7 +11320,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>445.9785625348323</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N45" t="n">
-        <v>443.3461731439669</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>240.8046361201516</v>
+        <v>263.5046911326701</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>392.4855462570072</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>381.3932644057259</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,7 +22612,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,19 +22713,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>49.30537163726005</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>128.610957271867</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,13 +22764,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.458182159231967</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>304.5618123891404</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22841,13 +22843,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22948,7 +22950,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23005,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>214.6543374933686</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23024,13 +23026,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>10.06223633122448</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23081,10 +23083,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>360.0242673938929</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23188,16 +23190,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23236,13 +23238,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>134.9699070214187</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>17.77593127592979</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23318,13 +23320,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>380.5029301722999</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23424,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>23.12472639190918</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>17.77593127592968</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>399.6171794102204</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23558,10 +23560,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -23716,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="17">
@@ -23732,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -23747,10 +23749,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>293.2084685777011</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,13 +23791,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>373.5841168694282</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.27352434754054</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23899,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>53.0747804766107</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>126.2602448590565</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
@@ -24032,10 +24034,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>384.742570803806</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>55.35263051300461</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>17.77593127592985</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24260,19 +24262,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>127.9471852437594</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.264148717489235</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>94.71712284772795</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24427,10 +24429,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>398.3024202793414</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -24506,7 +24508,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>20.02761226847286</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>94.17857660843489</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>394.6627714126073</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,19 +24736,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>174.4982189312597</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24891,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>208.6070786176236</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.89313055788412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.77593127592985</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>188.9081925428708</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24968,7 +24970,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -24977,13 +24979,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,22 +25077,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>82.68617307340649</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>70.43669735679151</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>163.5067364046011</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>410.4815269390945</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -25208,19 +25210,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>19.10615505383041</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -25369,16 +25371,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>248.5962573415245</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>17.77593127592979</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -25442,16 +25444,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>151.8799148138995</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25600,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.68772050506297</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>369.801790114295</v>
+        <v>373.584116869428</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.16762143631826</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25834,13 +25836,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>194.7158398879887</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>33.84907557688456</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.484184102520089</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>137.6022642028776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25953,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>33.67203130390956</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>55.35263051300471</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>215.5197924025644</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>552326.7883500797</v>
+        <v>552326.7883500798</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>552326.7883500797</v>
+        <v>552326.7883500798</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>552326.7883500798</v>
+        <v>552326.7883500797</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>552326.7883500797</v>
+        <v>552326.7883500798</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>611495.2616009257</v>
+        <v>552326.7883500797</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>786497.960045273</v>
+        <v>552326.7883500798</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>552326.7883500797</v>
+        <v>552326.7883500798</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>552326.7883500797</v>
+        <v>552326.7883500796</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>552326.7883500798</v>
+        <v>552326.7883500797</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>552326.7883500798</v>
+        <v>552326.7883500797</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>461641.439900291</v>
+        <v>552326.7883500798</v>
       </c>
     </row>
   </sheetData>
@@ -26323,28 +26325,28 @@
         <v>152207.2113488842</v>
       </c>
       <c r="F2" t="n">
-        <v>152207.2113488841</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="G2" t="n">
-        <v>152207.2113488841</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="H2" t="n">
-        <v>168506.7249250815</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="I2" t="n">
-        <v>216715.8251848053</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="J2" t="n">
         <v>152207.2113488842</v>
       </c>
       <c r="K2" t="n">
-        <v>152207.2113488841</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="L2" t="n">
         <v>152207.2113488842</v>
       </c>
       <c r="M2" t="n">
-        <v>152207.2113488841</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="N2" t="n">
         <v>152207.2113488842</v>
@@ -26353,7 +26355,7 @@
         <v>152207.2113488842</v>
       </c>
       <c r="P2" t="n">
-        <v>127225.5448125013</v>
+        <v>152207.2113488842</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>103749.8173439574</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>39061.35498003941</v>
       </c>
       <c r="C4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="D4" t="n">
         <v>39061.35498003941</v>
@@ -26427,37 +26429,37 @@
         <v>39061.35498003942</v>
       </c>
       <c r="F4" t="n">
+        <v>39061.35498003942</v>
+      </c>
+      <c r="G4" t="n">
         <v>39061.35498003941</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>39061.35498003941</v>
+      </c>
+      <c r="I4" t="n">
         <v>39061.35498003942</v>
       </c>
-      <c r="H4" t="n">
-        <v>43281.33413518692</v>
-      </c>
-      <c r="I4" t="n">
-        <v>55762.77397898339</v>
-      </c>
       <c r="J4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="K4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="L4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="M4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="N4" t="n">
         <v>39061.35498003941</v>
       </c>
       <c r="O4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="P4" t="n">
-        <v>32593.54773220026</v>
+        <v>39061.35498003942</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>39761.64114818192</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
-        <v>63482.93015699511</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="J5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127178.7186027669</v>
+        <v>-127178.7186027668</v>
       </c>
       <c r="C6" t="n">
+        <v>47776.79129034725</v>
+      </c>
+      <c r="D6" t="n">
         <v>47776.7912903472</v>
       </c>
-      <c r="D6" t="n">
-        <v>47776.79129034725</v>
-      </c>
       <c r="E6" t="n">
+        <v>81404.39129034719</v>
+      </c>
+      <c r="F6" t="n">
+        <v>81404.39129034728</v>
+      </c>
+      <c r="G6" t="n">
+        <v>81404.39129034725</v>
+      </c>
+      <c r="H6" t="n">
+        <v>81404.39129034719</v>
+      </c>
+      <c r="I6" t="n">
         <v>81404.39129034722</v>
       </c>
-      <c r="F6" t="n">
-        <v>81404.39129034714</v>
-      </c>
-      <c r="G6" t="n">
-        <v>81404.39129034716</v>
-      </c>
-      <c r="H6" t="n">
-        <v>49873.03113537271</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-6279.696295130678</v>
-      </c>
       <c r="J6" t="n">
+        <v>-55190.40951554773</v>
+      </c>
+      <c r="K6" t="n">
+        <v>81404.39129034725</v>
+      </c>
+      <c r="L6" t="n">
+        <v>81404.39129034725</v>
+      </c>
+      <c r="M6" t="n">
+        <v>81404.39129034722</v>
+      </c>
+      <c r="N6" t="n">
+        <v>81404.39129034725</v>
+      </c>
+      <c r="O6" t="n">
         <v>81404.39129034719</v>
       </c>
-      <c r="K6" t="n">
-        <v>81404.39129034716</v>
-      </c>
-      <c r="L6" t="n">
-        <v>81404.39129034722</v>
-      </c>
-      <c r="M6" t="n">
-        <v>81404.39129034716</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>81404.39129034719</v>
-      </c>
-      <c r="O6" t="n">
-        <v>81404.39129034722</v>
-      </c>
-      <c r="P6" t="n">
-        <v>70910.70807148784</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>1044.127140740051</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
         <v>522.0635703700256</v>
@@ -26829,7 +26831,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>390.152779750217</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>135.5987266329975</v>
+      </c>
+      <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
@@ -34720,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34942,19 +34944,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
+        <v>176.5650354103359</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>500.9700927793177</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>338.0047407346343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>471.1119924130247</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>135.5987266329975</v>
+      </c>
+      <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>522.0635703700256</v>
@@ -35255,19 +35257,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
+        <v>522.0635703700256</v>
+      </c>
+      <c r="P9" t="n">
         <v>40.55973291537975</v>
-      </c>
-      <c r="P9" t="n">
-        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
         <v>522.0635703700256</v>
@@ -35428,7 +35430,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>276.3515302285468</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>471.1119924130247</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
         <v>522.0635703700256</v>
@@ -35659,16 +35661,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>522.0635703700256</v>
@@ -35896,16 +35898,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O17" t="n">
-        <v>460.0037840019794</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>367.8628411009272</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>96.89162220608252</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>653.9743609898342</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>32.01814649772906</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
-        <v>653.9743609898342</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36358,25 +36360,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.353867487974</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>276.3515302285462</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M26" t="n">
         <v>522.0635703700256</v>
@@ -36607,7 +36609,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>474.8949538093261</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="L29" t="n">
         <v>522.0635703700256</v>
@@ -36841,19 +36843,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>471.1119924130248</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>522.0635703700256</v>
@@ -36926,13 +36928,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>500.9700927793172</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="L32" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N32" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>522.0635703700256</v>
@@ -37163,7 +37165,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>500.9700927793172</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
         <v>522.0635703700256</v>
@@ -37315,10 +37317,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="O35" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37388,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M36" t="n">
-        <v>500.9700927793173</v>
       </c>
       <c r="N36" t="n">
         <v>522.0635703700256</v>
@@ -37400,7 +37402,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>176.5650354103358</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>522.0635703700256</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M39" t="n">
-        <v>147.5918456237784</v>
-      </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O39" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,13 +37785,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="N41" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M41" t="n">
-        <v>400.9092955204429</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P42" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
-        <v>333.4227222961023</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>390.1527797502169</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>186.5450011173479</v>
+        <v>209.2450561298663</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354110.2463898325</v>
+        <v>348380.8505586057</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763806</v>
+        <v>11821355.91763805</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6386622.550922959</v>
+        <v>6386622.55092296</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>17.71126707126509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>69.90069649284844</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424963</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>113.6794429932546</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>116.8143727276019</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>79.62731911378488</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>100.0791888769557</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>42.43741174507631</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1144,16 +1144,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>406.7578715946248</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>167.4485604802287</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>159.1634371623325</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>136.1769805884545</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>33.23485850658428</v>
       </c>
       <c r="G11" t="n">
-        <v>386.8650699901663</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1587,16 +1587,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>41.24458363092483</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.023821855875643</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>222.7472451140789</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>271.0770354214523</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.4216953850578</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>261.17478890507</v>
       </c>
       <c r="H17" t="n">
-        <v>14.5909438208581</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>109.910034153904</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2061,16 +2061,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>129.1752199258839</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>193.9678482956017</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>11.89439304893099</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059088</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>388.3430365919147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>120.8517446319372</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>64.58458413263577</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>11.89439304893087</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>120.8517446319372</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464124</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
         <v>20.54110546596223</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>55.69551283691921</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>9.978229853488823</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>11.83104910464699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128979</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="32">
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>333.1615823429641</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>215.7328087232253</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>166.7165542762734</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>242.6122314632435</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>198.398744346241</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>22.55063026834873</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>139.7684413108517</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>198.3987443462411</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>68.10450439871028</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>36.61269645884417</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>218.8641190343231</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>85.25432609134842</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>372.26989229096</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>189.0123634191154</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4194,16 +4194,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>55.62709520730887</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1286.674210597145</v>
+        <v>936.8366559336256</v>
       </c>
       <c r="C2" t="n">
-        <v>1286.674210597145</v>
+        <v>526.7120652468957</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.674210597145</v>
+        <v>526.7120652468957</v>
       </c>
       <c r="E2" t="n">
-        <v>1268.784041838291</v>
+        <v>112.3718497637924</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>176.0078249962696</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>692.8507596625949</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4366,16 +4366,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="X2" t="n">
-        <v>1687.610883649055</v>
+        <v>1337.773328985535</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286.674210597145</v>
+        <v>936.8366559336256</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>81.91922121582792</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M3" t="n">
-        <v>537.7254774811266</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N3" t="n">
-        <v>1054.568412147452</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O3" t="n">
         <v>1571.411346813777</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1437.475014334506</v>
+        <v>826.4571559402618</v>
       </c>
       <c r="C4" t="n">
-        <v>1266.381641896222</v>
+        <v>826.4571559402618</v>
       </c>
       <c r="D4" t="n">
-        <v>1106.886997219132</v>
+        <v>826.4571559402618</v>
       </c>
       <c r="E4" t="n">
-        <v>1106.886997219132</v>
+        <v>826.4571559402618</v>
       </c>
       <c r="F4" t="n">
-        <v>992.0592770239257</v>
+        <v>826.4571559402618</v>
       </c>
       <c r="G4" t="n">
-        <v>824.8088859494691</v>
+        <v>708.4628400537953</v>
       </c>
       <c r="H4" t="n">
-        <v>675.2014307549257</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I4" t="n">
         <v>558.8553848592519</v>
@@ -4521,19 +4521,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U4" t="n">
-        <v>2088.254281480102</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="V4" t="n">
-        <v>2088.254281480102</v>
+        <v>1531.570388965748</v>
       </c>
       <c r="W4" t="n">
-        <v>2088.254281480102</v>
+        <v>1252.500724474623</v>
       </c>
       <c r="X4" t="n">
-        <v>1849.910419339786</v>
+        <v>1014.156862334306</v>
       </c>
       <c r="Y4" t="n">
-        <v>1625.17472072855</v>
+        <v>1014.156862334306</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142.8551754043048</v>
+        <v>936.785241691741</v>
       </c>
       <c r="C5" t="n">
-        <v>142.8551754043048</v>
+        <v>526.6606510050111</v>
       </c>
       <c r="D5" t="n">
-        <v>142.8551754043048</v>
+        <v>122.1967210980716</v>
       </c>
       <c r="E5" t="n">
-        <v>142.8551754043048</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>142.8551754043048</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1250.250340018485</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1738.416726816583</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>1354.656425951752</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X5" t="n">
-        <v>954.0130281207041</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y5" t="n">
-        <v>553.0763550687942</v>
+        <v>1347.00642135623</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959273</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962253</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.293889628578</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1528.297909780678</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U7" t="n">
-        <v>1245.499762326802</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V7" t="n">
-        <v>971.614017266324</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W7" t="n">
-        <v>692.5443527751984</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X7" t="n">
-        <v>454.2004906348818</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1277.096428763703</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C8" t="n">
-        <v>866.9718380769729</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="D8" t="n">
-        <v>866.9718380769729</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="E8" t="n">
-        <v>452.6316225938696</v>
+        <v>718.2872204398805</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>297.256808393568</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>297.256808393568</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4810,46 +4810,46 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>176.0078249962696</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M8" t="n">
-        <v>692.8507596625949</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N8" t="n">
-        <v>1209.69369432892</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O8" t="n">
-        <v>1209.69369432892</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y8" t="n">
-        <v>1687.317608428192</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D9" t="n">
         <v>469.7036984844747</v>
@@ -4871,40 +4871,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G9" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.414276561226</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N9" t="n">
-        <v>1531.257211227551</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O9" t="n">
-        <v>2048.100145893876</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>639.6001036836846</v>
+        <v>373.6296067167062</v>
       </c>
       <c r="C10" t="n">
-        <v>639.6001036836846</v>
+        <v>202.5362342784227</v>
       </c>
       <c r="D10" t="n">
-        <v>639.6001036836846</v>
+        <v>202.5362342784227</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>202.5362342784227</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4995,19 +4995,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V10" t="n">
-        <v>639.6001036836846</v>
+        <v>786.0650117219859</v>
       </c>
       <c r="W10" t="n">
-        <v>639.6001036836846</v>
+        <v>786.0650117219859</v>
       </c>
       <c r="X10" t="n">
-        <v>639.6001036836846</v>
+        <v>786.0650117219859</v>
       </c>
       <c r="Y10" t="n">
-        <v>639.6001036836846</v>
+        <v>561.3293131107506</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1678.033101815613</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.908511128883</v>
+        <v>1285.788123846983</v>
       </c>
       <c r="D11" t="n">
-        <v>1267.908511128883</v>
+        <v>881.3241939400436</v>
       </c>
       <c r="E11" t="n">
-        <v>853.5682956457795</v>
+        <v>881.3241939400436</v>
       </c>
       <c r="F11" t="n">
-        <v>432.537883599467</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I11" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L11" t="n">
-        <v>1054.568412147452</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M11" t="n">
-        <v>1571.411346813777</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N11" t="n">
-        <v>2088.254281480102</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.450954962253</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="N12" t="n">
-        <v>1592.293889628578</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="O12" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P12" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>777.1526093285881</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W13" t="n">
-        <v>777.1526093285881</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X13" t="n">
-        <v>777.1526093285881</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y13" t="n">
-        <v>777.1526093285881</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1286.674210597145</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C14" t="n">
-        <v>1286.674210597145</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D14" t="n">
-        <v>882.2102806902053</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E14" t="n">
-        <v>467.870065207102</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F14" t="n">
-        <v>46.83965316078957</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G14" t="n">
         <v>41.76508562960205</v>
@@ -5281,13 +5281,13 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N14" t="n">
         <v>1592.293889628578</v>
@@ -5308,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1641.050580140013</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1641.050580140013</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1257.290279275181</v>
       </c>
       <c r="X14" t="n">
-        <v>1687.610883649055</v>
+        <v>1257.290279275181</v>
       </c>
       <c r="Y14" t="n">
-        <v>1286.674210597145</v>
+        <v>856.3536062232714</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.450954962253</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N15" t="n">
-        <v>1592.293889628578</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O15" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P15" t="n">
         <v>2088.254281480102</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>1485.891263925851</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V16" t="n">
-        <v>1485.891263925851</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W16" t="n">
-        <v>1485.891263925851</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X16" t="n">
-        <v>1485.891263925851</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>142.8551754043048</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="C17" t="n">
-        <v>142.8551754043048</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="D17" t="n">
-        <v>142.8551754043048</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="E17" t="n">
-        <v>142.8551754043048</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="F17" t="n">
-        <v>142.8551754043048</v>
+        <v>702.8382637707402</v>
       </c>
       <c r="G17" t="n">
-        <v>142.8551754043048</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H17" t="n">
         <v>128.1168483125289</v>
@@ -5524,43 +5524,43 @@
         <v>295.9505570973564</v>
       </c>
       <c r="M17" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N17" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O17" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P17" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V17" t="n">
-        <v>1738.416726816583</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W17" t="n">
-        <v>1354.656425951752</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X17" t="n">
-        <v>954.0130281207041</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y17" t="n">
-        <v>553.0763550687942</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="18">
@@ -5600,22 +5600,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N18" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O18" t="n">
-        <v>1207.227134123859</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P18" t="n">
-        <v>1724.070068790184</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>436.3817591188274</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>436.3817591188274</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>436.3817591188274</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>436.3817591188274</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
         <v>41.76508562960205</v>
@@ -5697,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S19" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T19" t="n">
-        <v>1145.223475107064</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U19" t="n">
-        <v>862.4253276531883</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V19" t="n">
-        <v>862.4253276531883</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W19" t="n">
-        <v>862.4253276531883</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X19" t="n">
-        <v>624.0814655128718</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y19" t="n">
-        <v>624.0814655128718</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1265.081890330439</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="C20" t="n">
-        <v>854.9572996437093</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="D20" t="n">
-        <v>450.4933697367699</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="E20" t="n">
-        <v>450.4933697367699</v>
+        <v>658.7226171664213</v>
       </c>
       <c r="F20" t="n">
-        <v>450.4933697367699</v>
+        <v>237.6922051201088</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960205</v>
+        <v>237.6922051201088</v>
       </c>
       <c r="H20" t="n">
         <v>41.76508562960205</v>
@@ -5755,22 +5755,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M20" t="n">
         <v>1075.450954962253</v>
       </c>
       <c r="N20" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O20" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P20" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q20" t="n">
         <v>2088.254281480102</v>
@@ -5779,25 +5779,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X20" t="n">
-        <v>2076.239743046839</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y20" t="n">
-        <v>1675.303069994929</v>
+        <v>1073.062832649525</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>1014.414276561226</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N21" t="n">
-        <v>1531.257211227551</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O21" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P21" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
         <v>2088.254281480102</v>
@@ -5867,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1816.589795035412</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1577.041056012114</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.242908558238</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.35716349776</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W22" t="n">
-        <v>741.2874990066346</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X22" t="n">
-        <v>558.8553848592519</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1695.988587952916</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C23" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E23" t="n">
-        <v>871.5237817830823</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H23" t="n">
         <v>41.76508562960205</v>
@@ -5989,28 +5989,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M23" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N23" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O23" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P23" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q23" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
@@ -6019,22 +6019,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
         <v>41.76508562960205</v>
@@ -6071,25 +6071,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M24" t="n">
-        <v>751.4208778585605</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N24" t="n">
-        <v>1268.263812524886</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O24" t="n">
-        <v>1785.106747191211</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P24" t="n">
-        <v>1785.106747191211</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q24" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1393.020729020947</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>1221.927356582663</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>1221.927356582663</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>992.0592770239257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>824.8088859494691</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1805.456134026226</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V25" t="n">
-        <v>1805.456134026226</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W25" t="n">
-        <v>1805.456134026226</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X25" t="n">
-        <v>1805.456134026226</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y25" t="n">
-        <v>1580.720435414991</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1277.096428763703</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C26" t="n">
-        <v>866.9718380769729</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D26" t="n">
-        <v>462.5079081700334</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E26" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F26" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H26" t="n">
         <v>41.76508562960205</v>
@@ -6226,28 +6226,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M26" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N26" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O26" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P26" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
@@ -6256,22 +6256,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V26" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W26" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X26" t="n">
-        <v>2088.254281480102</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y26" t="n">
-        <v>1687.317608428192</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
         <v>469.7036984844747</v>
@@ -6293,40 +6293,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K27" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L27" t="n">
-        <v>1207.227134123859</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M27" t="n">
-        <v>1724.070068790184</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="N27" t="n">
-        <v>1724.070068790184</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O27" t="n">
-        <v>1724.070068790184</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.76508562960205</v>
+        <v>201.259730306692</v>
       </c>
       <c r="C28" t="n">
-        <v>41.76508562960205</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D28" t="n">
         <v>41.76508562960205</v>
@@ -6414,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1340.598203386633</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1057.800055932758</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V28" t="n">
-        <v>783.9143108722797</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W28" t="n">
-        <v>504.844646381154</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X28" t="n">
-        <v>266.5007842408373</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.76508562960205</v>
+        <v>201.259730306692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1678.033101815613</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="C29" t="n">
-        <v>1267.908511128883</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="D29" t="n">
-        <v>863.4445812219433</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="E29" t="n">
-        <v>449.10436573884</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="F29" t="n">
-        <v>449.10436573884</v>
+        <v>53.71564028076062</v>
       </c>
       <c r="G29" t="n">
-        <v>439.0253456848109</v>
+        <v>53.71564028076062</v>
       </c>
       <c r="H29" t="n">
-        <v>128.1168483125289</v>
+        <v>53.71564028076062</v>
       </c>
       <c r="I29" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L29" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M29" t="n">
-        <v>1530.854701124212</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6493,22 +6493,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X29" t="n">
-        <v>2088.254281480102</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y29" t="n">
-        <v>2088.254281480102</v>
+        <v>474.7460523270731</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>81.91922121582746</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="L30" t="n">
-        <v>41.76508562960205</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M30" t="n">
-        <v>558.6080202959273</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N30" t="n">
-        <v>1075.450954962253</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O30" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P30" t="n">
         <v>2088.254281480102</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1648.189235160388</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>1477.095862722105</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>1317.601218045015</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>992.0592770239257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>824.8088859494691</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M31" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N31" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O31" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P31" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>2088.254281480102</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>2088.254281480102</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>2088.254281480102</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>2060.624640165668</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>1835.888941554433</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>680.7074256791724</v>
+        <v>1208.050632634561</v>
       </c>
       <c r="C32" t="n">
-        <v>680.7074256791724</v>
+        <v>1208.050632634561</v>
       </c>
       <c r="D32" t="n">
-        <v>680.7074256791724</v>
+        <v>1208.050632634561</v>
       </c>
       <c r="E32" t="n">
-        <v>680.7074256791724</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F32" t="n">
-        <v>259.6770136328599</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G32" t="n">
         <v>41.76508562960205</v>
@@ -6700,25 +6700,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>497.1688317915616</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L32" t="n">
-        <v>1014.011766457887</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M32" t="n">
-        <v>1530.854701124212</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N32" t="n">
-        <v>2047.697635790537</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O32" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6733,19 +6733,19 @@
         <v>1866.047797426961</v>
       </c>
       <c r="U32" t="n">
-        <v>1866.047797426961</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V32" t="n">
-        <v>1866.047797426961</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W32" t="n">
-        <v>1482.28749656213</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X32" t="n">
-        <v>1081.644098731082</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="Y32" t="n">
-        <v>680.7074256791724</v>
+        <v>1208.050632634561</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M33" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N33" t="n">
-        <v>1075.450954962253</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O33" t="n">
-        <v>1592.293889628578</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P33" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q33" t="n">
-        <v>2088.254281480102</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1648.189235160388</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>1477.095862722105</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>1317.601218045015</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>992.0592770239257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>824.8088859494691</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>1816.589795035412</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1648.189235160388</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U34" t="n">
-        <v>1648.189235160388</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V34" t="n">
-        <v>1648.189235160388</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W34" t="n">
-        <v>1648.189235160388</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X34" t="n">
-        <v>1648.189235160388</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y34" t="n">
-        <v>1648.189235160388</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>451.8896763163319</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C35" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D35" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E35" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H35" t="n">
         <v>41.76508562960205</v>
@@ -6940,22 +6940,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K35" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L35" t="n">
-        <v>1075.450954962253</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M35" t="n">
-        <v>1592.293889628578</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N35" t="n">
-        <v>2047.697635790537</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6967,22 +6967,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1887.851509413192</v>
       </c>
       <c r="U35" t="n">
-        <v>1831.193789739612</v>
+        <v>1887.851509413192</v>
       </c>
       <c r="V35" t="n">
-        <v>1481.356235076093</v>
+        <v>1538.013954749673</v>
       </c>
       <c r="W35" t="n">
-        <v>1097.595934211262</v>
+        <v>1154.253653884841</v>
       </c>
       <c r="X35" t="n">
-        <v>696.9525363802143</v>
+        <v>753.6102560537939</v>
       </c>
       <c r="Y35" t="n">
-        <v>696.9525363802143</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M36" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N36" t="n">
-        <v>1075.450954962253</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O36" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P36" t="n">
         <v>2088.254281480102</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.263917876656</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="C37" t="n">
-        <v>362.1705454383725</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D37" t="n">
-        <v>202.6759007612826</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E37" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F37" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G37" t="n">
         <v>41.76508562960205</v>
@@ -7119,28 +7119,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T37" t="n">
-        <v>1485.891263925851</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U37" t="n">
-        <v>1485.891263925851</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V37" t="n">
-        <v>1463.112849513378</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W37" t="n">
-        <v>1184.043185022252</v>
+        <v>447.3593388443753</v>
       </c>
       <c r="X37" t="n">
-        <v>945.6993228819357</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="Y37" t="n">
-        <v>720.9636242707004</v>
+        <v>209.0154767040586</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1285.863997266186</v>
+        <v>553.0763550687942</v>
       </c>
       <c r="C38" t="n">
-        <v>1285.863997266186</v>
+        <v>553.0763550687942</v>
       </c>
       <c r="D38" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E38" t="n">
-        <v>871.5237817830823</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F38" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H38" t="n">
         <v>41.76508562960205</v>
@@ -7174,28 +7174,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K38" t="n">
-        <v>692.8507596625949</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L38" t="n">
-        <v>692.8507596625949</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M38" t="n">
-        <v>692.8507596625949</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N38" t="n">
-        <v>692.8507596625949</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O38" t="n">
-        <v>1209.69369432892</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P38" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7204,22 +7204,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>2019.461852794536</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U38" t="n">
-        <v>2019.461852794536</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V38" t="n">
-        <v>1669.624298131017</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W38" t="n">
-        <v>1285.863997266186</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X38" t="n">
-        <v>1285.863997266186</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="Y38" t="n">
-        <v>1285.863997266186</v>
+        <v>553.0763550687942</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>558.6080202959273</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N39" t="n">
-        <v>1075.450954962253</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O39" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q39" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7356,25 +7356,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
         <v>41.76508562960205</v>
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>893.3361278988716</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="C41" t="n">
-        <v>483.2115372121417</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D41" t="n">
-        <v>78.74760730520222</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E41" t="n">
         <v>41.76508562960205</v>
@@ -7417,19 +7417,19 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M41" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N41" t="n">
-        <v>1767.09327468481</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O41" t="n">
-        <v>1767.09327468481</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P41" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
         <v>2088.254281480102</v>
@@ -7441,22 +7441,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1644.972929715524</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1644.972929715524</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.493980615271</v>
+        <v>1261.212628850692</v>
       </c>
       <c r="X41" t="n">
-        <v>1704.493980615271</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="Y41" t="n">
-        <v>1303.557307563361</v>
+        <v>860.5692310196448</v>
       </c>
     </row>
     <row r="42">
@@ -7499,16 +7499,16 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>1571.411346813777</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N42" t="n">
-        <v>1571.411346813777</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="O42" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P42" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7602,19 +7602,19 @@
         <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>1245.499762326802</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>971.614017266324</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>692.5443527751984</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>454.2004906348818</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>229.4647920236465</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.76508562960205</v>
+        <v>953.7197528998416</v>
       </c>
       <c r="C44" t="n">
-        <v>41.76508562960205</v>
+        <v>543.5951622131117</v>
       </c>
       <c r="D44" t="n">
-        <v>41.76508562960205</v>
+        <v>543.5951622131117</v>
       </c>
       <c r="E44" t="n">
-        <v>41.76508562960205</v>
+        <v>543.5951622131117</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960205</v>
+        <v>543.5951622131117</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H44" t="n">
         <v>41.76508562960205</v>
@@ -7648,52 +7648,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L44" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M44" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N44" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O44" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P44" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q44" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V44" t="n">
-        <v>1603.135651610684</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.375350745852</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X44" t="n">
-        <v>818.7319529148049</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="Y44" t="n">
-        <v>417.795279862895</v>
+        <v>953.7197528998416</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>1014.414276561226</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N45" t="n">
-        <v>1531.257211227551</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O45" t="n">
-        <v>1531.257211227551</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P45" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
         <v>2088.254281480102</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.263917876656</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>362.1705454383725</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>202.6759007612826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
         <v>41.76508562960205</v>
@@ -7830,28 +7830,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>720.9636242707004</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>720.9636242707004</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>720.9636242707004</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>720.9636242707004</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>224.7351163062146</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>296.1630732760186</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>91.92897171537967</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>558.5343765177352</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
@@ -8224,19 +8224,19 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>269.8552598673813</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8297,28 +8297,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>525.3716274158285</v>
+        <v>94.8193679181835</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>231.0841246958424</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
@@ -8467,16 +8467,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>394.1192645454833</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>94.8193679181835</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
-        <v>525.3716274158285</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
         <v>617.5489684328704</v>
@@ -8938,7 +8938,7 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
         <v>594.1598684051008</v>
@@ -9005,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P15" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9172,22 +9172,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O17" t="n">
-        <v>535.0653799235644</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9257,16 +9257,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>425.6143201009266</v>
       </c>
       <c r="P18" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>394.6973592394724</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>593.882383535937</v>
+        <v>269.4773261669552</v>
       </c>
       <c r="O20" t="n">
         <v>93.18977562578313</v>
@@ -9421,7 +9421,7 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>87.31214281472352</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O21" t="n">
-        <v>266.9965351298658</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O23" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637755</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>333.0441487333849</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O26" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>175.2980289959033</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P27" t="n">
-        <v>422.1224761037308</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>549.1401736751965</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
         <v>617.5489684328704</v>
@@ -10123,7 +10123,7 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O29" t="n">
         <v>93.18977562578313</v>
@@ -10135,7 +10135,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>91.92897171537922</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
         <v>579.627854108443</v>
@@ -10205,10 +10205,10 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>549.1401736751965</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P33" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>73.48479305079316</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N35" t="n">
-        <v>552.9160747585987</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10664,25 +10664,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P36" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>490.0456851936601</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509097</v>
+        <v>270.21439869122</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N39" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>171.9933802602892</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,22 +11065,22 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
-        <v>535.1658287548266</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11147,19 +11147,19 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>425.4271248393445</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O44" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N45" t="n">
         <v>575.2569637637755</v>
@@ -11393,10 +11393,10 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>263.5046911326701</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22549,25 +22549,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>392.4855462570072</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>346.9194114330008</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22606,7 +22606,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>49.30537163726005</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>48.76351443611013</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22786,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>330.5694942144873</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>304.5618123891404</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22995,7 +22995,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>194.7158398879886</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.06223633122448</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>140.3508519183305</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -23089,7 +23089,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -23190,16 +23190,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.821377468182192</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23235,10 +23235,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>134.9699070214187</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -23247,7 +23247,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>383.585249419265</v>
       </c>
       <c r="G11" t="n">
-        <v>17.77593127592979</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23424,19 +23424,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>399.6171794102204</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23548,19 +23548,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>31.74264170900608</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884774</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23743,13 +23743,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>143.4662123610261</v>
       </c>
       <c r="H17" t="n">
-        <v>293.2084685777011</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23901,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>53.0747804766107</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>93.31312169923908</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>113.8315641029575</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24034,10 +24034,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>384.742570803806</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300461</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17.77593127592985</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24259,22 +24259,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>276.0755616894537</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>94.71712284772795</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>398.3024202793414</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24496,22 +24496,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>276.0755616894537</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24654,7 +24654,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>166.7928287882037</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>394.6627714126073</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>73.65719595145057</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176236</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="32">
@@ -24925,13 +24925,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>77.03523098530815</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>188.9081925428708</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24973,16 +24973,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>70.43669735679151</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>163.5067364046011</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -25171,7 +25171,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25207,10 +25207,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>21.58567486636881</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>248.5962573415245</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>136.5105265353627</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25396,19 +25396,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>202.020546261629</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25444,7 +25444,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>151.8799148138995</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>373.584116869428</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -25681,10 +25681,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>35.62576778876189</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>194.7158398879887</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33.84907557688456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25879,10 +25879,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>215.6286378469807</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>215.5197924025644</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>552326.7883500797</v>
+        <v>552326.7883500798</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>552326.7883500798</v>
+        <v>552326.7883500797</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>552326.7883500797</v>
+        <v>552326.7883500798</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>552326.7883500798</v>
+        <v>552326.7883500797</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>552326.7883500798</v>
+        <v>552326.7883500797</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>552326.7883500798</v>
+        <v>552326.7883500797</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>552326.7883500798</v>
+        <v>552326.7883500797</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>552326.7883500798</v>
+        <v>552326.7883500797</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>552326.7883500796</v>
+        <v>552326.7883500798</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>552326.7883500797</v>
+        <v>552326.7883500798</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>552326.7883500798</v>
+        <v>552326.7883500797</v>
       </c>
     </row>
   </sheetData>
@@ -26334,7 +26334,7 @@
         <v>152207.2113488842</v>
       </c>
       <c r="I2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488843</v>
       </c>
       <c r="J2" t="n">
         <v>152207.2113488842</v>
@@ -26426,10 +26426,10 @@
         <v>39061.35498003941</v>
       </c>
       <c r="E4" t="n">
-        <v>39061.35498003942</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="F4" t="n">
-        <v>39061.35498003942</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="G4" t="n">
         <v>39061.35498003941</v>
@@ -26438,19 +26438,19 @@
         <v>39061.35498003941</v>
       </c>
       <c r="I4" t="n">
-        <v>39061.35498003942</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="J4" t="n">
-        <v>39061.35498003942</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="K4" t="n">
-        <v>39061.35498003942</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="L4" t="n">
-        <v>39061.35498003942</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="M4" t="n">
-        <v>39061.35498003942</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="N4" t="n">
         <v>39061.35498003941</v>
@@ -26459,7 +26459,7 @@
         <v>39061.35498003942</v>
       </c>
       <c r="P4" t="n">
-        <v>39061.35498003942</v>
+        <v>39061.35498003941</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127178.7186027668</v>
+        <v>-127856.2474621609</v>
       </c>
       <c r="C6" t="n">
-        <v>47776.79129034725</v>
+        <v>47099.26243095315</v>
       </c>
       <c r="D6" t="n">
-        <v>47776.7912903472</v>
+        <v>47099.26243095318</v>
       </c>
       <c r="E6" t="n">
-        <v>81404.39129034719</v>
+        <v>80726.8624309532</v>
       </c>
       <c r="F6" t="n">
-        <v>81404.39129034728</v>
+        <v>80726.8624309532</v>
       </c>
       <c r="G6" t="n">
-        <v>81404.39129034725</v>
+        <v>80726.8624309532</v>
       </c>
       <c r="H6" t="n">
-        <v>81404.39129034719</v>
+        <v>80726.86243095317</v>
       </c>
       <c r="I6" t="n">
-        <v>81404.39129034722</v>
+        <v>80726.86243095326</v>
       </c>
       <c r="J6" t="n">
-        <v>-55190.40951554773</v>
+        <v>-55867.93837494174</v>
       </c>
       <c r="K6" t="n">
-        <v>81404.39129034725</v>
+        <v>80726.86243095317</v>
       </c>
       <c r="L6" t="n">
-        <v>81404.39129034725</v>
+        <v>80726.86243095317</v>
       </c>
       <c r="M6" t="n">
-        <v>81404.39129034722</v>
+        <v>80726.8624309532</v>
       </c>
       <c r="N6" t="n">
-        <v>81404.39129034725</v>
+        <v>80726.8624309532</v>
       </c>
       <c r="O6" t="n">
-        <v>81404.39129034719</v>
+        <v>80726.86243095317</v>
       </c>
       <c r="P6" t="n">
-        <v>81404.39129034719</v>
+        <v>80726.86243095323</v>
       </c>
     </row>
   </sheetData>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>135.5987266329975</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.55973291537967</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
@@ -34944,19 +34944,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>471.1119924130247</v>
+        <v>40.55973291537975</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
@@ -35187,16 +35187,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>338.0047407346343</v>
+      </c>
+      <c r="M9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>40.55973291537975</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N11" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>14.48459394538775</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N12" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>471.1119924130247</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
         <v>522.0635703700256</v>
@@ -35658,7 +35658,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>500.9700927793177</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P15" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,22 +35892,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O17" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O17" t="n">
-        <v>441.8756042977812</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="P18" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.0047407346337</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>500.9700927793177</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O21" t="n">
-        <v>209.2450561298658</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O23" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M23" t="n">
+      <c r="P23" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N23" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O23" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>276.3515302285462</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O26" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M26" t="n">
+      <c r="P26" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N26" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O26" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>117.7337452574859</v>
+      </c>
+      <c r="N27" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
       <c r="P27" t="n">
-        <v>367.8628411009271</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
         <v>522.0635703700256</v>
@@ -36843,7 +36843,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>40.55973291537921</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
         <v>522.0635703700256</v>
@@ -36925,10 +36925,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O32" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M32" t="n">
+      <c r="P32" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N32" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P33" t="n">
-        <v>500.9700927793172</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>135.5987266329975</v>
+      </c>
+      <c r="N35" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L35" t="n">
+      <c r="O35" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M35" t="n">
+      <c r="P35" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N35" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P36" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>400.909295520443</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700256</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="N39" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>117.7337452574854</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>244.2170912967376</v>
+      </c>
+      <c r="P41" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>367.8628411009271</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O44" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M44" t="n">
+      <c r="P44" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N44" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O44" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N45" t="n">
         <v>522.0635703700256</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
